--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2016">
   <si>
     <t>en</t>
   </si>
@@ -1598,6 +1598,12 @@
   </si>
   <si>
     <t>Експлозивен</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Очи</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6405,7 +6411,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1180"/>
+  <dimension ref="A1:B1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8943,12 +8949,12 @@
         <v>529</v>
       </c>
       <c r="B316" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B317" t="s">
         <v>530</v>
@@ -8956,31 +8962,31 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B318" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B319" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B320" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B321" t="s">
         <v>535</v>
@@ -9007,28 +9013,28 @@
         <v>540</v>
       </c>
       <c r="B324" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B325" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B326" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B327" t="s">
         <v>544</v>
@@ -9055,12 +9061,12 @@
         <v>549</v>
       </c>
       <c r="B330" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B331" t="s">
         <v>551</v>
@@ -9127,12 +9133,12 @@
         <v>566</v>
       </c>
       <c r="B339" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B340" t="s">
         <v>568</v>
@@ -9287,12 +9293,12 @@
         <v>605</v>
       </c>
       <c r="B359" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B360" t="s">
         <v>607</v>
@@ -9319,12 +9325,12 @@
         <v>612</v>
       </c>
       <c r="B363" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B364" t="s">
         <v>614</v>
@@ -9351,12 +9357,12 @@
         <v>619</v>
       </c>
       <c r="B367" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B368" t="s">
         <v>621</v>
@@ -9415,12 +9421,12 @@
         <v>634</v>
       </c>
       <c r="B375" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B376" t="s">
         <v>636</v>
@@ -9855,36 +9861,36 @@
         <v>743</v>
       </c>
       <c r="B430" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B431" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B432" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B433" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B434" t="s">
         <v>748</v>
@@ -9927,12 +9933,12 @@
         <v>757</v>
       </c>
       <c r="B439" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B440" t="s">
         <v>759</v>
@@ -9991,12 +9997,12 @@
         <v>772</v>
       </c>
       <c r="B447" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B448" t="s">
         <v>774</v>
@@ -10007,12 +10013,12 @@
         <v>775</v>
       </c>
       <c r="B449" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B450" t="s">
         <v>777</v>
@@ -10063,20 +10069,20 @@
         <v>788</v>
       </c>
       <c r="B456" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B457" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B458" t="s">
         <v>791</v>
@@ -10111,36 +10117,36 @@
         <v>798</v>
       </c>
       <c r="B462" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B463" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B464" t="s">
-        <v>528</v>
+        <v>801</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B465" t="s">
-        <v>801</v>
+        <v>530</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B466" t="s">
         <v>803</v>
@@ -10151,12 +10157,12 @@
         <v>804</v>
       </c>
       <c r="B467" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B468" t="s">
         <v>806</v>
@@ -10183,15 +10189,15 @@
         <v>811</v>
       </c>
       <c r="B471" t="s">
-        <v>528</v>
+        <v>812</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B472" t="s">
-        <v>813</v>
+        <v>530</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10199,20 +10205,20 @@
         <v>814</v>
       </c>
       <c r="B473" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B474" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B475" t="s">
         <v>817</v>
@@ -10255,12 +10261,12 @@
         <v>826</v>
       </c>
       <c r="B480" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B481" t="s">
         <v>828</v>
@@ -10279,12 +10285,12 @@
         <v>831</v>
       </c>
       <c r="B483" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B484" t="s">
         <v>833</v>
@@ -10295,36 +10301,36 @@
         <v>834</v>
       </c>
       <c r="B485" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B487" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B488" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B489" t="s">
         <v>839</v>
@@ -10479,12 +10485,12 @@
         <v>876</v>
       </c>
       <c r="B508" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B509" t="s">
         <v>878</v>
@@ -10503,12 +10509,12 @@
         <v>881</v>
       </c>
       <c r="B511" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B512" t="s">
         <v>883</v>
@@ -10575,15 +10581,15 @@
         <v>898</v>
       </c>
       <c r="B520" t="s">
-        <v>236</v>
+        <v>899</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B521" t="s">
-        <v>900</v>
+        <v>236</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -10655,12 +10661,12 @@
         <v>917</v>
       </c>
       <c r="B530" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B531" t="s">
         <v>919</v>
@@ -10679,12 +10685,12 @@
         <v>922</v>
       </c>
       <c r="B533" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B534" t="s">
         <v>924</v>
@@ -10719,20 +10725,20 @@
         <v>931</v>
       </c>
       <c r="B538" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B539" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B540" t="s">
         <v>934</v>
@@ -10751,36 +10757,36 @@
         <v>937</v>
       </c>
       <c r="B542" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B543" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B544" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B545" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B546" t="s">
         <v>942</v>
@@ -10791,12 +10797,12 @@
         <v>943</v>
       </c>
       <c r="B547" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B548" t="s">
         <v>945</v>
@@ -10807,12 +10813,12 @@
         <v>946</v>
       </c>
       <c r="B549" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B550" t="s">
         <v>948</v>
@@ -10823,28 +10829,28 @@
         <v>949</v>
       </c>
       <c r="B551" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B552" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B553" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B554" t="s">
         <v>953</v>
@@ -10911,28 +10917,28 @@
         <v>968</v>
       </c>
       <c r="B562" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B563" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B564" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B565" t="s">
         <v>972</v>
@@ -10943,12 +10949,12 @@
         <v>973</v>
       </c>
       <c r="B566" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B567" t="s">
         <v>975</v>
@@ -11023,20 +11029,20 @@
         <v>992</v>
       </c>
       <c r="B576" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B577" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B578" t="s">
         <v>995</v>
@@ -11079,12 +11085,12 @@
         <v>1004</v>
       </c>
       <c r="B583" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B584" t="s">
         <v>1006</v>
@@ -11143,12 +11149,12 @@
         <v>1019</v>
       </c>
       <c r="B591" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B592" t="s">
         <v>1021</v>
@@ -11167,12 +11173,12 @@
         <v>1024</v>
       </c>
       <c r="B594" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B595" t="s">
         <v>1026</v>
@@ -11215,28 +11221,28 @@
         <v>1035</v>
       </c>
       <c r="B600" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B601" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B602" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B603" t="s">
         <v>1039</v>
@@ -11295,12 +11301,12 @@
         <v>1052</v>
       </c>
       <c r="B610" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B611" t="s">
         <v>1054</v>
@@ -11351,12 +11357,12 @@
         <v>1065</v>
       </c>
       <c r="B617" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B618" t="s">
         <v>1067</v>
@@ -11391,12 +11397,12 @@
         <v>1074</v>
       </c>
       <c r="B622" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B623" t="s">
         <v>1076</v>
@@ -11431,12 +11437,12 @@
         <v>1083</v>
       </c>
       <c r="B627" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B628" t="s">
         <v>1085</v>
@@ -11447,44 +11453,44 @@
         <v>1086</v>
       </c>
       <c r="B629" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B630" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B631" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B632" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B633" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B634" t="s">
         <v>1092</v>
@@ -11495,28 +11501,28 @@
         <v>1093</v>
       </c>
       <c r="B635" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B636" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B637" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B638" t="s">
         <v>1097</v>
@@ -11527,20 +11533,20 @@
         <v>1098</v>
       </c>
       <c r="B639" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B640" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B641" t="s">
         <v>1101</v>
@@ -11551,12 +11557,12 @@
         <v>1102</v>
       </c>
       <c r="B642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B643" t="s">
         <v>1104</v>
@@ -11591,12 +11597,12 @@
         <v>1111</v>
       </c>
       <c r="B647" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B648" t="s">
         <v>1113</v>
@@ -11607,12 +11613,12 @@
         <v>1114</v>
       </c>
       <c r="B649" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B650" t="s">
         <v>1116</v>
@@ -11623,12 +11629,12 @@
         <v>1117</v>
       </c>
       <c r="B651" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B652" t="s">
         <v>1119</v>
@@ -11655,20 +11661,20 @@
         <v>1124</v>
       </c>
       <c r="B655" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B656" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B657" t="s">
         <v>1127</v>
@@ -11735,12 +11741,12 @@
         <v>1142</v>
       </c>
       <c r="B665" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B666" t="s">
         <v>1144</v>
@@ -11823,12 +11829,12 @@
         <v>1163</v>
       </c>
       <c r="B676" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B677" t="s">
         <v>1165</v>
@@ -11855,20 +11861,20 @@
         <v>1170</v>
       </c>
       <c r="B680" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B682" t="s">
         <v>1173</v>
@@ -11927,12 +11933,12 @@
         <v>1186</v>
       </c>
       <c r="B689" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B690" t="s">
         <v>1188</v>
@@ -11951,12 +11957,12 @@
         <v>1191</v>
       </c>
       <c r="B692" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B693" t="s">
         <v>1193</v>
@@ -11999,12 +12005,12 @@
         <v>1202</v>
       </c>
       <c r="B698" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B699" t="s">
         <v>1204</v>
@@ -12023,12 +12029,12 @@
         <v>1207</v>
       </c>
       <c r="B701" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B702" t="s">
         <v>1209</v>
@@ -12055,28 +12061,28 @@
         <v>1214</v>
       </c>
       <c r="B705" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B706" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B707" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B708" t="s">
         <v>1218</v>
@@ -12087,12 +12093,12 @@
         <v>1219</v>
       </c>
       <c r="B709" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B710" t="s">
         <v>1221</v>
@@ -12127,12 +12133,12 @@
         <v>1228</v>
       </c>
       <c r="B714" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B715" t="s">
         <v>1230</v>
@@ -12199,12 +12205,12 @@
         <v>1245</v>
       </c>
       <c r="B723" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B724" t="s">
         <v>1247</v>
@@ -12223,12 +12229,12 @@
         <v>1250</v>
       </c>
       <c r="B726" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B727" t="s">
         <v>1252</v>
@@ -12247,12 +12253,12 @@
         <v>1255</v>
       </c>
       <c r="B729" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B730" t="s">
         <v>1257</v>
@@ -12303,12 +12309,12 @@
         <v>1268</v>
       </c>
       <c r="B736" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B737" t="s">
         <v>1270</v>
@@ -12319,28 +12325,28 @@
         <v>1271</v>
       </c>
       <c r="B738" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B739" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B740" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B741" t="s">
         <v>1275</v>
@@ -12367,20 +12373,20 @@
         <v>1280</v>
       </c>
       <c r="B744" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B745" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B746" t="s">
         <v>1283</v>
@@ -12471,12 +12477,12 @@
         <v>1304</v>
       </c>
       <c r="B757" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B758" t="s">
         <v>1306</v>
@@ -12487,20 +12493,20 @@
         <v>1307</v>
       </c>
       <c r="B759" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B760" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B761" t="s">
         <v>1310</v>
@@ -12511,12 +12517,12 @@
         <v>1311</v>
       </c>
       <c r="B762" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B763" t="s">
         <v>1313</v>
@@ -12543,12 +12549,12 @@
         <v>1318</v>
       </c>
       <c r="B766" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B767" t="s">
         <v>1320</v>
@@ -12575,20 +12581,20 @@
         <v>1325</v>
       </c>
       <c r="B770" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B771" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B772" t="s">
         <v>1328</v>
@@ -12655,28 +12661,28 @@
         <v>1343</v>
       </c>
       <c r="B780" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B781" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B782" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B783" t="s">
         <v>1347</v>
@@ -12695,12 +12701,12 @@
         <v>1350</v>
       </c>
       <c r="B785" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B786" t="s">
         <v>1352</v>
@@ -12743,28 +12749,28 @@
         <v>1361</v>
       </c>
       <c r="B791" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B792" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B793" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B794" t="s">
         <v>1365</v>
@@ -12775,28 +12781,28 @@
         <v>1366</v>
       </c>
       <c r="B795" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B796" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B797" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B798" t="s">
         <v>1370</v>
@@ -12847,28 +12853,28 @@
         <v>1381</v>
       </c>
       <c r="B804" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B805" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B806" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B807" t="s">
         <v>1385</v>
@@ -12919,12 +12925,12 @@
         <v>1396</v>
       </c>
       <c r="B813" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B814" t="s">
         <v>1398</v>
@@ -12943,20 +12949,20 @@
         <v>1401</v>
       </c>
       <c r="B816" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B817" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B818" t="s">
         <v>1404</v>
@@ -12991,12 +12997,12 @@
         <v>1411</v>
       </c>
       <c r="B822" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B823" t="s">
         <v>1413</v>
@@ -13039,12 +13045,12 @@
         <v>1422</v>
       </c>
       <c r="B828" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B829" t="s">
         <v>1424</v>
@@ -13055,20 +13061,20 @@
         <v>1425</v>
       </c>
       <c r="B830" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B831" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B832" t="s">
         <v>1428</v>
@@ -13127,36 +13133,36 @@
         <v>1441</v>
       </c>
       <c r="B839" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B840" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B841" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B842" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B843" t="s">
         <v>1446</v>
@@ -13287,12 +13293,12 @@
         <v>1477</v>
       </c>
       <c r="B859" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B860" t="s">
         <v>1479</v>
@@ -13303,12 +13309,12 @@
         <v>1480</v>
       </c>
       <c r="B861" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B862" t="s">
         <v>1482</v>
@@ -13327,12 +13333,12 @@
         <v>1485</v>
       </c>
       <c r="B864" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B865" t="s">
         <v>1487</v>
@@ -13359,20 +13365,20 @@
         <v>1492</v>
       </c>
       <c r="B868" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B869" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B870" t="s">
         <v>1495</v>
@@ -13415,20 +13421,20 @@
         <v>1504</v>
       </c>
       <c r="B875" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B876" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B877" t="s">
         <v>1507</v>
@@ -13471,20 +13477,20 @@
         <v>1516</v>
       </c>
       <c r="B882" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B883" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B884" t="s">
         <v>1519</v>
@@ -13495,12 +13501,12 @@
         <v>1520</v>
       </c>
       <c r="B885" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B886" t="s">
         <v>1522</v>
@@ -13511,12 +13517,12 @@
         <v>1523</v>
       </c>
       <c r="B887" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B888" t="s">
         <v>1525</v>
@@ -13527,12 +13533,12 @@
         <v>1526</v>
       </c>
       <c r="B889" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B890" t="s">
         <v>1528</v>
@@ -13575,12 +13581,12 @@
         <v>1537</v>
       </c>
       <c r="B895" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B896" t="s">
         <v>1539</v>
@@ -13623,12 +13629,12 @@
         <v>1548</v>
       </c>
       <c r="B901" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B902" t="s">
         <v>1550</v>
@@ -13639,20 +13645,20 @@
         <v>1551</v>
       </c>
       <c r="B903" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B904" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B905" t="s">
         <v>1554</v>
@@ -13671,12 +13677,12 @@
         <v>1557</v>
       </c>
       <c r="B907" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B908" t="s">
         <v>1559</v>
@@ -13711,20 +13717,20 @@
         <v>1566</v>
       </c>
       <c r="B912" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B913" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B914" t="s">
         <v>1569</v>
@@ -13767,20 +13773,20 @@
         <v>1578</v>
       </c>
       <c r="B919" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B920" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B921" t="s">
         <v>1581</v>
@@ -13791,20 +13797,20 @@
         <v>1582</v>
       </c>
       <c r="B922" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B923" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B924" t="s">
         <v>1585</v>
@@ -13831,28 +13837,28 @@
         <v>1590</v>
       </c>
       <c r="B927" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B928" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B929" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B930" t="s">
         <v>1594</v>
@@ -13919,20 +13925,20 @@
         <v>1609</v>
       </c>
       <c r="B938" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B939" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B940" t="s">
         <v>1612</v>
@@ -13951,12 +13957,12 @@
         <v>1615</v>
       </c>
       <c r="B942" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B943" t="s">
         <v>1617</v>
@@ -13967,36 +13973,36 @@
         <v>1618</v>
       </c>
       <c r="B944" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B945" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B946" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B947" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B948" t="s">
         <v>1623</v>
@@ -14039,12 +14045,12 @@
         <v>1632</v>
       </c>
       <c r="B953" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B954" t="s">
         <v>1634</v>
@@ -14103,36 +14109,36 @@
         <v>1647</v>
       </c>
       <c r="B961" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B962" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B963" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B964" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B965" t="s">
         <v>1652</v>
@@ -14215,20 +14221,20 @@
         <v>1671</v>
       </c>
       <c r="B975" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B976" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B977" t="s">
         <v>1674</v>
@@ -14247,28 +14253,28 @@
         <v>1677</v>
       </c>
       <c r="B979" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B980" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B981" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B982" t="s">
         <v>1681</v>
@@ -14279,12 +14285,12 @@
         <v>1682</v>
       </c>
       <c r="B983" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B984" t="s">
         <v>1684</v>
@@ -14303,20 +14309,20 @@
         <v>1687</v>
       </c>
       <c r="B986" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B987" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B988" t="s">
         <v>1690</v>
@@ -14327,12 +14333,12 @@
         <v>1691</v>
       </c>
       <c r="B989" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B990" t="s">
         <v>1693</v>
@@ -14351,28 +14357,28 @@
         <v>1696</v>
       </c>
       <c r="B992" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B993" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B994" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B995" t="s">
         <v>1700</v>
@@ -14407,28 +14413,28 @@
         <v>1707</v>
       </c>
       <c r="B999" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1000" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1001" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1002" t="s">
         <v>1711</v>
@@ -14447,28 +14453,28 @@
         <v>1714</v>
       </c>
       <c r="B1004" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1005" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1006" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1007" t="s">
         <v>1718</v>
@@ -14479,12 +14485,12 @@
         <v>1719</v>
       </c>
       <c r="B1008" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1009" t="s">
         <v>1721</v>
@@ -14511,20 +14517,20 @@
         <v>1726</v>
       </c>
       <c r="B1012" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1013" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1014" t="s">
         <v>1729</v>
@@ -14591,68 +14597,68 @@
         <v>1744</v>
       </c>
       <c r="B1022" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1023" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1024" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1025" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1026" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1027" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1028" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1029" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1030" t="s">
         <v>1753</v>
@@ -14679,12 +14685,12 @@
         <v>1758</v>
       </c>
       <c r="B1033" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1034" t="s">
         <v>1760</v>
@@ -14959,12 +14965,12 @@
         <v>1827</v>
       </c>
       <c r="B1068" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1069" t="s">
         <v>1829</v>
@@ -14983,20 +14989,20 @@
         <v>1832</v>
       </c>
       <c r="B1071" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1072" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1073" t="s">
         <v>1835</v>
@@ -15007,12 +15013,12 @@
         <v>1836</v>
       </c>
       <c r="B1074" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1075" t="s">
         <v>1838</v>
@@ -15031,12 +15037,12 @@
         <v>1841</v>
       </c>
       <c r="B1077" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1078" t="s">
         <v>1843</v>
@@ -15071,12 +15077,12 @@
         <v>1850</v>
       </c>
       <c r="B1082" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1083" t="s">
         <v>1852</v>
@@ -15111,12 +15117,12 @@
         <v>1859</v>
       </c>
       <c r="B1087" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1088" t="s">
         <v>1861</v>
@@ -15159,12 +15165,12 @@
         <v>1870</v>
       </c>
       <c r="B1093" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1094" t="s">
         <v>1872</v>
@@ -15191,36 +15197,36 @@
         <v>1877</v>
       </c>
       <c r="B1097" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1098" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1099" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1100" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1101" t="s">
         <v>1882</v>
@@ -15247,12 +15253,12 @@
         <v>1887</v>
       </c>
       <c r="B1104" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1105" t="s">
         <v>1889</v>
@@ -15263,12 +15269,12 @@
         <v>1890</v>
       </c>
       <c r="B1106" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1107" t="s">
         <v>1892</v>
@@ -15423,44 +15429,44 @@
         <v>1929</v>
       </c>
       <c r="B1126" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1127" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1128" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1129" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B1130" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1131" t="s">
         <v>1935</v>
@@ -15479,36 +15485,36 @@
         <v>1938</v>
       </c>
       <c r="B1133" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1134" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1135" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1136" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1137" t="s">
         <v>1943</v>
@@ -15583,12 +15589,12 @@
         <v>1960</v>
       </c>
       <c r="B1146" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1147" t="s">
         <v>1962</v>
@@ -15631,36 +15637,36 @@
         <v>1971</v>
       </c>
       <c r="B1152" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1153" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1154" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1155" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1156" t="s">
         <v>1976</v>
@@ -15679,68 +15685,68 @@
         <v>1979</v>
       </c>
       <c r="B1158" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1159" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1160" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1161" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1162" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1163" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1164" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1165" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1166" t="s">
         <v>1988</v>
@@ -15751,12 +15757,12 @@
         <v>1989</v>
       </c>
       <c r="B1167" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1168" t="s">
         <v>1991</v>
@@ -15791,20 +15797,20 @@
         <v>1998</v>
       </c>
       <c r="B1172" t="s">
-        <v>791</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1173" t="s">
-        <v>1999</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1174" t="s">
         <v>2001</v>
@@ -15858,8 +15864,16 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2015</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1180"/>
+  <autoFilter ref="A1:B1181"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1182</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2018">
   <si>
     <t>en</t>
   </si>
@@ -4832,6 +4832,12 @@
   </si>
   <si>
     <t>Седемте смъртни гряха</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Сянката на колоса</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6411,7 +6417,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1181"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13933,20 +13939,20 @@
         <v>1611</v>
       </c>
       <c r="B939" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B940" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B941" t="s">
         <v>1614</v>
@@ -13965,12 +13971,12 @@
         <v>1617</v>
       </c>
       <c r="B943" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B944" t="s">
         <v>1619</v>
@@ -13981,36 +13987,36 @@
         <v>1620</v>
       </c>
       <c r="B945" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B946" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B947" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B948" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B949" t="s">
         <v>1625</v>
@@ -14053,12 +14059,12 @@
         <v>1634</v>
       </c>
       <c r="B954" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B955" t="s">
         <v>1636</v>
@@ -14117,36 +14123,36 @@
         <v>1649</v>
       </c>
       <c r="B962" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B963" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B964" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B965" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B966" t="s">
         <v>1654</v>
@@ -14229,20 +14235,20 @@
         <v>1673</v>
       </c>
       <c r="B976" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B977" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B978" t="s">
         <v>1676</v>
@@ -14261,28 +14267,28 @@
         <v>1679</v>
       </c>
       <c r="B980" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B981" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B982" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B983" t="s">
         <v>1683</v>
@@ -14293,12 +14299,12 @@
         <v>1684</v>
       </c>
       <c r="B984" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B985" t="s">
         <v>1686</v>
@@ -14317,20 +14323,20 @@
         <v>1689</v>
       </c>
       <c r="B987" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B988" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B989" t="s">
         <v>1692</v>
@@ -14341,12 +14347,12 @@
         <v>1693</v>
       </c>
       <c r="B990" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B991" t="s">
         <v>1695</v>
@@ -14365,28 +14371,28 @@
         <v>1698</v>
       </c>
       <c r="B993" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B994" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B995" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B996" t="s">
         <v>1702</v>
@@ -14421,28 +14427,28 @@
         <v>1709</v>
       </c>
       <c r="B1000" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1001" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1002" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1003" t="s">
         <v>1713</v>
@@ -14461,28 +14467,28 @@
         <v>1716</v>
       </c>
       <c r="B1005" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1006" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1007" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1008" t="s">
         <v>1720</v>
@@ -14493,12 +14499,12 @@
         <v>1721</v>
       </c>
       <c r="B1009" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1010" t="s">
         <v>1723</v>
@@ -14525,20 +14531,20 @@
         <v>1728</v>
       </c>
       <c r="B1013" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1014" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1015" t="s">
         <v>1731</v>
@@ -14605,68 +14611,68 @@
         <v>1746</v>
       </c>
       <c r="B1023" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1024" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1025" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1026" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1027" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1028" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1029" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1030" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1031" t="s">
         <v>1755</v>
@@ -14693,12 +14699,12 @@
         <v>1760</v>
       </c>
       <c r="B1034" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1035" t="s">
         <v>1762</v>
@@ -14973,12 +14979,12 @@
         <v>1829</v>
       </c>
       <c r="B1069" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1070" t="s">
         <v>1831</v>
@@ -14997,20 +15003,20 @@
         <v>1834</v>
       </c>
       <c r="B1072" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1073" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1074" t="s">
         <v>1837</v>
@@ -15021,12 +15027,12 @@
         <v>1838</v>
       </c>
       <c r="B1075" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1076" t="s">
         <v>1840</v>
@@ -15045,12 +15051,12 @@
         <v>1843</v>
       </c>
       <c r="B1078" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1079" t="s">
         <v>1845</v>
@@ -15085,12 +15091,12 @@
         <v>1852</v>
       </c>
       <c r="B1083" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1084" t="s">
         <v>1854</v>
@@ -15125,12 +15131,12 @@
         <v>1861</v>
       </c>
       <c r="B1088" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1089" t="s">
         <v>1863</v>
@@ -15173,12 +15179,12 @@
         <v>1872</v>
       </c>
       <c r="B1094" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1095" t="s">
         <v>1874</v>
@@ -15205,36 +15211,36 @@
         <v>1879</v>
       </c>
       <c r="B1098" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1099" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1100" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1101" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1102" t="s">
         <v>1884</v>
@@ -15261,12 +15267,12 @@
         <v>1889</v>
       </c>
       <c r="B1105" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1106" t="s">
         <v>1891</v>
@@ -15277,12 +15283,12 @@
         <v>1892</v>
       </c>
       <c r="B1107" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1108" t="s">
         <v>1894</v>
@@ -15437,44 +15443,44 @@
         <v>1931</v>
       </c>
       <c r="B1127" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1128" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B1129" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1130" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1131" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1132" t="s">
         <v>1937</v>
@@ -15493,36 +15499,36 @@
         <v>1940</v>
       </c>
       <c r="B1134" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1135" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1136" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1137" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1138" t="s">
         <v>1945</v>
@@ -15597,12 +15603,12 @@
         <v>1962</v>
       </c>
       <c r="B1147" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1148" t="s">
         <v>1964</v>
@@ -15645,36 +15651,36 @@
         <v>1973</v>
       </c>
       <c r="B1153" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1154" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1155" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1156" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1157" t="s">
         <v>1978</v>
@@ -15693,68 +15699,68 @@
         <v>1981</v>
       </c>
       <c r="B1159" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1160" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1161" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1162" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1163" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1164" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1165" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1166" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1167" t="s">
         <v>1990</v>
@@ -15765,12 +15771,12 @@
         <v>1991</v>
       </c>
       <c r="B1168" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1169" t="s">
         <v>1993</v>
@@ -15805,20 +15811,20 @@
         <v>2000</v>
       </c>
       <c r="B1173" t="s">
-        <v>793</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1174" t="s">
-        <v>2001</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1175" t="s">
         <v>2003</v>
@@ -15872,8 +15878,16 @@
         <v>2015</v>
       </c>
     </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1181"/>
+  <autoFilter ref="A1:B1182"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2022">
   <si>
     <t>en</t>
   </si>
@@ -3839,6 +3839,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Планини на хаоса</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6423,7 +6429,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12385,20 +12391,20 @@
         <v>1280</v>
       </c>
       <c r="B744" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B745" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B746" t="s">
         <v>1283</v>
@@ -12489,12 +12495,12 @@
         <v>1304</v>
       </c>
       <c r="B757" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B758" t="s">
         <v>1306</v>
@@ -12505,20 +12511,20 @@
         <v>1307</v>
       </c>
       <c r="B759" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B760" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B761" t="s">
         <v>1310</v>
@@ -12529,12 +12535,12 @@
         <v>1311</v>
       </c>
       <c r="B762" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B763" t="s">
         <v>1313</v>
@@ -12561,12 +12567,12 @@
         <v>1318</v>
       </c>
       <c r="B766" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B767" t="s">
         <v>1320</v>
@@ -12593,20 +12599,20 @@
         <v>1325</v>
       </c>
       <c r="B770" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B771" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B772" t="s">
         <v>1328</v>
@@ -12673,28 +12679,28 @@
         <v>1343</v>
       </c>
       <c r="B780" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B781" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B782" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B783" t="s">
         <v>1347</v>
@@ -12713,12 +12719,12 @@
         <v>1350</v>
       </c>
       <c r="B785" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B786" t="s">
         <v>1352</v>
@@ -12761,28 +12767,28 @@
         <v>1361</v>
       </c>
       <c r="B791" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B792" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B793" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B794" t="s">
         <v>1365</v>
@@ -12793,28 +12799,28 @@
         <v>1366</v>
       </c>
       <c r="B795" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B796" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B797" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B798" t="s">
         <v>1370</v>
@@ -12865,28 +12871,28 @@
         <v>1381</v>
       </c>
       <c r="B804" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B805" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B806" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B807" t="s">
         <v>1385</v>
@@ -12937,12 +12943,12 @@
         <v>1396</v>
       </c>
       <c r="B813" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B814" t="s">
         <v>1398</v>
@@ -12961,20 +12967,20 @@
         <v>1401</v>
       </c>
       <c r="B816" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B817" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B818" t="s">
         <v>1404</v>
@@ -13009,12 +13015,12 @@
         <v>1411</v>
       </c>
       <c r="B822" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B823" t="s">
         <v>1413</v>
@@ -13057,12 +13063,12 @@
         <v>1422</v>
       </c>
       <c r="B828" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B829" t="s">
         <v>1424</v>
@@ -13073,20 +13079,20 @@
         <v>1425</v>
       </c>
       <c r="B830" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B831" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B832" t="s">
         <v>1428</v>
@@ -13145,36 +13151,36 @@
         <v>1441</v>
       </c>
       <c r="B839" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B840" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B841" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B842" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B843" t="s">
         <v>1446</v>
@@ -13305,12 +13311,12 @@
         <v>1477</v>
       </c>
       <c r="B859" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B860" t="s">
         <v>1479</v>
@@ -13321,12 +13327,12 @@
         <v>1480</v>
       </c>
       <c r="B861" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B862" t="s">
         <v>1482</v>
@@ -13345,12 +13351,12 @@
         <v>1485</v>
       </c>
       <c r="B864" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B865" t="s">
         <v>1487</v>
@@ -13377,20 +13383,20 @@
         <v>1492</v>
       </c>
       <c r="B868" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B869" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B870" t="s">
         <v>1495</v>
@@ -13433,20 +13439,20 @@
         <v>1504</v>
       </c>
       <c r="B875" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B876" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B877" t="s">
         <v>1507</v>
@@ -13489,20 +13495,20 @@
         <v>1516</v>
       </c>
       <c r="B882" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B883" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B884" t="s">
         <v>1519</v>
@@ -13513,12 +13519,12 @@
         <v>1520</v>
       </c>
       <c r="B885" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B886" t="s">
         <v>1522</v>
@@ -13529,12 +13535,12 @@
         <v>1523</v>
       </c>
       <c r="B887" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B888" t="s">
         <v>1525</v>
@@ -13545,12 +13551,12 @@
         <v>1526</v>
       </c>
       <c r="B889" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B890" t="s">
         <v>1528</v>
@@ -13593,12 +13599,12 @@
         <v>1537</v>
       </c>
       <c r="B895" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B896" t="s">
         <v>1539</v>
@@ -13641,12 +13647,12 @@
         <v>1548</v>
       </c>
       <c r="B901" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B902" t="s">
         <v>1550</v>
@@ -13657,20 +13663,20 @@
         <v>1551</v>
       </c>
       <c r="B903" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B904" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B905" t="s">
         <v>1554</v>
@@ -13689,12 +13695,12 @@
         <v>1557</v>
       </c>
       <c r="B907" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B908" t="s">
         <v>1559</v>
@@ -13729,20 +13735,20 @@
         <v>1566</v>
       </c>
       <c r="B912" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B913" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B914" t="s">
         <v>1569</v>
@@ -13785,20 +13791,20 @@
         <v>1578</v>
       </c>
       <c r="B919" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B920" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B921" t="s">
         <v>1581</v>
@@ -13809,20 +13815,20 @@
         <v>1582</v>
       </c>
       <c r="B922" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B923" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B924" t="s">
         <v>1585</v>
@@ -13849,28 +13855,28 @@
         <v>1590</v>
       </c>
       <c r="B927" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B928" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B929" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B930" t="s">
         <v>1594</v>
@@ -13945,20 +13951,20 @@
         <v>1611</v>
       </c>
       <c r="B939" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B940" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B941" t="s">
         <v>1614</v>
@@ -13977,12 +13983,12 @@
         <v>1617</v>
       </c>
       <c r="B943" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B944" t="s">
         <v>1619</v>
@@ -13993,36 +13999,36 @@
         <v>1620</v>
       </c>
       <c r="B945" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B946" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B947" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B948" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B949" t="s">
         <v>1625</v>
@@ -14065,12 +14071,12 @@
         <v>1634</v>
       </c>
       <c r="B954" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B955" t="s">
         <v>1636</v>
@@ -14129,36 +14135,36 @@
         <v>1649</v>
       </c>
       <c r="B962" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B963" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B964" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B965" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B966" t="s">
         <v>1654</v>
@@ -14241,20 +14247,20 @@
         <v>1673</v>
       </c>
       <c r="B976" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B977" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B978" t="s">
         <v>1676</v>
@@ -14273,28 +14279,28 @@
         <v>1679</v>
       </c>
       <c r="B980" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B981" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B982" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B983" t="s">
         <v>1683</v>
@@ -14305,12 +14311,12 @@
         <v>1684</v>
       </c>
       <c r="B984" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B985" t="s">
         <v>1686</v>
@@ -14329,20 +14335,20 @@
         <v>1689</v>
       </c>
       <c r="B987" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B988" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B989" t="s">
         <v>1692</v>
@@ -14353,12 +14359,12 @@
         <v>1693</v>
       </c>
       <c r="B990" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B991" t="s">
         <v>1695</v>
@@ -14377,28 +14383,28 @@
         <v>1698</v>
       </c>
       <c r="B993" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B994" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B995" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B996" t="s">
         <v>1702</v>
@@ -14433,28 +14439,28 @@
         <v>1709</v>
       </c>
       <c r="B1000" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1001" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1002" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1003" t="s">
         <v>1713</v>
@@ -14473,28 +14479,28 @@
         <v>1716</v>
       </c>
       <c r="B1005" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1006" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1007" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1008" t="s">
         <v>1720</v>
@@ -14505,12 +14511,12 @@
         <v>1721</v>
       </c>
       <c r="B1009" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1010" t="s">
         <v>1723</v>
@@ -14537,20 +14543,20 @@
         <v>1728</v>
       </c>
       <c r="B1013" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1014" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1015" t="s">
         <v>1731</v>
@@ -14617,68 +14623,68 @@
         <v>1746</v>
       </c>
       <c r="B1023" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1024" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1025" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1026" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1027" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1028" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1029" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1030" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1031" t="s">
         <v>1755</v>
@@ -14705,12 +14711,12 @@
         <v>1760</v>
       </c>
       <c r="B1034" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1035" t="s">
         <v>1762</v>
@@ -14993,12 +14999,12 @@
         <v>1831</v>
       </c>
       <c r="B1070" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1071" t="s">
         <v>1833</v>
@@ -15017,20 +15023,20 @@
         <v>1836</v>
       </c>
       <c r="B1073" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1074" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1075" t="s">
         <v>1839</v>
@@ -15041,12 +15047,12 @@
         <v>1840</v>
       </c>
       <c r="B1076" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1077" t="s">
         <v>1842</v>
@@ -15065,12 +15071,12 @@
         <v>1845</v>
       </c>
       <c r="B1079" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1080" t="s">
         <v>1847</v>
@@ -15105,12 +15111,12 @@
         <v>1854</v>
       </c>
       <c r="B1084" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1085" t="s">
         <v>1856</v>
@@ -15145,12 +15151,12 @@
         <v>1863</v>
       </c>
       <c r="B1089" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1090" t="s">
         <v>1865</v>
@@ -15193,12 +15199,12 @@
         <v>1874</v>
       </c>
       <c r="B1095" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1096" t="s">
         <v>1876</v>
@@ -15225,36 +15231,36 @@
         <v>1881</v>
       </c>
       <c r="B1099" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1101" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1102" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1103" t="s">
         <v>1886</v>
@@ -15281,12 +15287,12 @@
         <v>1891</v>
       </c>
       <c r="B1106" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1107" t="s">
         <v>1893</v>
@@ -15297,12 +15303,12 @@
         <v>1894</v>
       </c>
       <c r="B1108" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1109" t="s">
         <v>1896</v>
@@ -15457,44 +15463,44 @@
         <v>1933</v>
       </c>
       <c r="B1128" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1129" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1130" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1131" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1132" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1133" t="s">
         <v>1939</v>
@@ -15513,36 +15519,36 @@
         <v>1942</v>
       </c>
       <c r="B1135" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1136" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1137" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1138" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1139" t="s">
         <v>1947</v>
@@ -15617,12 +15623,12 @@
         <v>1964</v>
       </c>
       <c r="B1148" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1149" t="s">
         <v>1966</v>
@@ -15665,36 +15671,36 @@
         <v>1975</v>
       </c>
       <c r="B1154" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1155" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1156" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1157" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1158" t="s">
         <v>1980</v>
@@ -15713,68 +15719,68 @@
         <v>1983</v>
       </c>
       <c r="B1160" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1161" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1162" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1163" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1164" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1165" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1166" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1167" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1168" t="s">
         <v>1992</v>
@@ -15785,12 +15791,12 @@
         <v>1993</v>
       </c>
       <c r="B1169" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1170" t="s">
         <v>1995</v>
@@ -15833,20 +15839,20 @@
         <v>2004</v>
       </c>
       <c r="B1175" t="s">
-        <v>791</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1176" t="s">
-        <v>2005</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1177" t="s">
         <v>2007</v>
@@ -15900,8 +15906,16 @@
         <v>2019</v>
       </c>
     </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1183"/>
+  <autoFilter ref="A1:B1184"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2024">
   <si>
     <t>en</t>
   </si>
@@ -2162,6 +2162,12 @@
   </si>
   <si>
     <t>Шрифт (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Шрифт (Red Chiseled Sandstone)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6429,7 +6435,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1184"/>
+  <dimension ref="A1:B1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9879,36 +9885,36 @@
         <v>743</v>
       </c>
       <c r="B430" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B431" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B432" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B433" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B434" t="s">
         <v>748</v>
@@ -9951,12 +9957,12 @@
         <v>757</v>
       </c>
       <c r="B439" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B440" t="s">
         <v>759</v>
@@ -10015,12 +10021,12 @@
         <v>772</v>
       </c>
       <c r="B447" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B448" t="s">
         <v>774</v>
@@ -10031,12 +10037,12 @@
         <v>775</v>
       </c>
       <c r="B449" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B450" t="s">
         <v>777</v>
@@ -10087,20 +10093,20 @@
         <v>788</v>
       </c>
       <c r="B456" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B457" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B458" t="s">
         <v>791</v>
@@ -10135,36 +10141,36 @@
         <v>798</v>
       </c>
       <c r="B462" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B463" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B464" t="s">
-        <v>530</v>
+        <v>801</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B465" t="s">
-        <v>801</v>
+        <v>530</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B466" t="s">
         <v>803</v>
@@ -10175,12 +10181,12 @@
         <v>804</v>
       </c>
       <c r="B467" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B468" t="s">
         <v>806</v>
@@ -10207,15 +10213,15 @@
         <v>811</v>
       </c>
       <c r="B471" t="s">
-        <v>530</v>
+        <v>812</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B472" t="s">
-        <v>813</v>
+        <v>530</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10223,20 +10229,20 @@
         <v>814</v>
       </c>
       <c r="B473" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B474" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B475" t="s">
         <v>817</v>
@@ -10279,12 +10285,12 @@
         <v>826</v>
       </c>
       <c r="B480" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B481" t="s">
         <v>828</v>
@@ -10303,12 +10309,12 @@
         <v>831</v>
       </c>
       <c r="B483" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B484" t="s">
         <v>833</v>
@@ -10319,36 +10325,36 @@
         <v>834</v>
       </c>
       <c r="B485" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B487" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B488" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B489" t="s">
         <v>839</v>
@@ -10503,12 +10509,12 @@
         <v>876</v>
       </c>
       <c r="B508" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B509" t="s">
         <v>878</v>
@@ -10527,12 +10533,12 @@
         <v>881</v>
       </c>
       <c r="B511" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B512" t="s">
         <v>883</v>
@@ -10599,15 +10605,15 @@
         <v>898</v>
       </c>
       <c r="B520" t="s">
-        <v>236</v>
+        <v>899</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B521" t="s">
-        <v>900</v>
+        <v>236</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -10679,12 +10685,12 @@
         <v>917</v>
       </c>
       <c r="B530" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B531" t="s">
         <v>919</v>
@@ -10703,12 +10709,12 @@
         <v>922</v>
       </c>
       <c r="B533" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B534" t="s">
         <v>924</v>
@@ -10743,20 +10749,20 @@
         <v>931</v>
       </c>
       <c r="B538" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B539" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B540" t="s">
         <v>934</v>
@@ -10775,36 +10781,36 @@
         <v>937</v>
       </c>
       <c r="B542" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B543" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B544" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B545" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B546" t="s">
         <v>942</v>
@@ -10815,12 +10821,12 @@
         <v>943</v>
       </c>
       <c r="B547" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B548" t="s">
         <v>945</v>
@@ -10831,12 +10837,12 @@
         <v>946</v>
       </c>
       <c r="B549" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B550" t="s">
         <v>948</v>
@@ -10847,28 +10853,28 @@
         <v>949</v>
       </c>
       <c r="B551" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B552" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B553" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B554" t="s">
         <v>953</v>
@@ -10935,28 +10941,28 @@
         <v>968</v>
       </c>
       <c r="B562" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B563" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B564" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B565" t="s">
         <v>972</v>
@@ -10967,12 +10973,12 @@
         <v>973</v>
       </c>
       <c r="B566" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B567" t="s">
         <v>975</v>
@@ -11047,20 +11053,20 @@
         <v>992</v>
       </c>
       <c r="B576" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B577" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B578" t="s">
         <v>995</v>
@@ -11103,12 +11109,12 @@
         <v>1004</v>
       </c>
       <c r="B583" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B584" t="s">
         <v>1006</v>
@@ -11167,12 +11173,12 @@
         <v>1019</v>
       </c>
       <c r="B591" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B592" t="s">
         <v>1021</v>
@@ -11191,12 +11197,12 @@
         <v>1024</v>
       </c>
       <c r="B594" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B595" t="s">
         <v>1026</v>
@@ -11239,28 +11245,28 @@
         <v>1035</v>
       </c>
       <c r="B600" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B601" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B602" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B603" t="s">
         <v>1039</v>
@@ -11319,12 +11325,12 @@
         <v>1052</v>
       </c>
       <c r="B610" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B611" t="s">
         <v>1054</v>
@@ -11375,12 +11381,12 @@
         <v>1065</v>
       </c>
       <c r="B617" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B618" t="s">
         <v>1067</v>
@@ -11415,12 +11421,12 @@
         <v>1074</v>
       </c>
       <c r="B622" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B623" t="s">
         <v>1076</v>
@@ -11455,12 +11461,12 @@
         <v>1083</v>
       </c>
       <c r="B627" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B628" t="s">
         <v>1085</v>
@@ -11471,44 +11477,44 @@
         <v>1086</v>
       </c>
       <c r="B629" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B630" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B631" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B632" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B633" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B634" t="s">
         <v>1092</v>
@@ -11519,28 +11525,28 @@
         <v>1093</v>
       </c>
       <c r="B635" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B636" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B637" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B638" t="s">
         <v>1097</v>
@@ -11551,20 +11557,20 @@
         <v>1098</v>
       </c>
       <c r="B639" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B640" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B641" t="s">
         <v>1101</v>
@@ -11575,12 +11581,12 @@
         <v>1102</v>
       </c>
       <c r="B642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B643" t="s">
         <v>1104</v>
@@ -11615,12 +11621,12 @@
         <v>1111</v>
       </c>
       <c r="B647" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B648" t="s">
         <v>1113</v>
@@ -11631,12 +11637,12 @@
         <v>1114</v>
       </c>
       <c r="B649" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B650" t="s">
         <v>1116</v>
@@ -11647,12 +11653,12 @@
         <v>1117</v>
       </c>
       <c r="B651" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B652" t="s">
         <v>1119</v>
@@ -11679,20 +11685,20 @@
         <v>1124</v>
       </c>
       <c r="B655" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B656" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B657" t="s">
         <v>1127</v>
@@ -11759,12 +11765,12 @@
         <v>1142</v>
       </c>
       <c r="B665" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B666" t="s">
         <v>1144</v>
@@ -11847,12 +11853,12 @@
         <v>1163</v>
       </c>
       <c r="B676" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B677" t="s">
         <v>1165</v>
@@ -11879,20 +11885,20 @@
         <v>1170</v>
       </c>
       <c r="B680" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B682" t="s">
         <v>1173</v>
@@ -11951,12 +11957,12 @@
         <v>1186</v>
       </c>
       <c r="B689" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B690" t="s">
         <v>1188</v>
@@ -11975,12 +11981,12 @@
         <v>1191</v>
       </c>
       <c r="B692" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B693" t="s">
         <v>1193</v>
@@ -12023,12 +12029,12 @@
         <v>1202</v>
       </c>
       <c r="B698" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B699" t="s">
         <v>1204</v>
@@ -12047,12 +12053,12 @@
         <v>1207</v>
       </c>
       <c r="B701" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B702" t="s">
         <v>1209</v>
@@ -12079,28 +12085,28 @@
         <v>1214</v>
       </c>
       <c r="B705" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B706" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B707" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B708" t="s">
         <v>1218</v>
@@ -12111,12 +12117,12 @@
         <v>1219</v>
       </c>
       <c r="B709" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B710" t="s">
         <v>1221</v>
@@ -12151,12 +12157,12 @@
         <v>1228</v>
       </c>
       <c r="B714" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B715" t="s">
         <v>1230</v>
@@ -12223,12 +12229,12 @@
         <v>1245</v>
       </c>
       <c r="B723" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B724" t="s">
         <v>1247</v>
@@ -12247,12 +12253,12 @@
         <v>1250</v>
       </c>
       <c r="B726" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B727" t="s">
         <v>1252</v>
@@ -12271,12 +12277,12 @@
         <v>1255</v>
       </c>
       <c r="B729" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B730" t="s">
         <v>1257</v>
@@ -12327,12 +12333,12 @@
         <v>1268</v>
       </c>
       <c r="B736" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B737" t="s">
         <v>1270</v>
@@ -12343,28 +12349,28 @@
         <v>1271</v>
       </c>
       <c r="B738" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B739" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B740" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B741" t="s">
         <v>1275</v>
@@ -12399,20 +12405,20 @@
         <v>1282</v>
       </c>
       <c r="B745" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B746" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B747" t="s">
         <v>1285</v>
@@ -12503,12 +12509,12 @@
         <v>1306</v>
       </c>
       <c r="B758" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B759" t="s">
         <v>1308</v>
@@ -12519,20 +12525,20 @@
         <v>1309</v>
       </c>
       <c r="B760" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B761" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B762" t="s">
         <v>1312</v>
@@ -12543,12 +12549,12 @@
         <v>1313</v>
       </c>
       <c r="B763" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B764" t="s">
         <v>1315</v>
@@ -12575,12 +12581,12 @@
         <v>1320</v>
       </c>
       <c r="B767" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B768" t="s">
         <v>1322</v>
@@ -12607,20 +12613,20 @@
         <v>1327</v>
       </c>
       <c r="B771" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B772" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B773" t="s">
         <v>1330</v>
@@ -12687,28 +12693,28 @@
         <v>1345</v>
       </c>
       <c r="B781" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B782" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B783" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B784" t="s">
         <v>1349</v>
@@ -12727,12 +12733,12 @@
         <v>1352</v>
       </c>
       <c r="B786" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B787" t="s">
         <v>1354</v>
@@ -12775,28 +12781,28 @@
         <v>1363</v>
       </c>
       <c r="B792" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B793" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B794" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B795" t="s">
         <v>1367</v>
@@ -12807,28 +12813,28 @@
         <v>1368</v>
       </c>
       <c r="B796" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B797" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B798" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B799" t="s">
         <v>1372</v>
@@ -12879,28 +12885,28 @@
         <v>1383</v>
       </c>
       <c r="B805" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B806" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B807" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B808" t="s">
         <v>1387</v>
@@ -12951,12 +12957,12 @@
         <v>1398</v>
       </c>
       <c r="B814" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B815" t="s">
         <v>1400</v>
@@ -12975,20 +12981,20 @@
         <v>1403</v>
       </c>
       <c r="B817" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B818" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B819" t="s">
         <v>1406</v>
@@ -13023,12 +13029,12 @@
         <v>1413</v>
       </c>
       <c r="B823" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B824" t="s">
         <v>1415</v>
@@ -13071,12 +13077,12 @@
         <v>1424</v>
       </c>
       <c r="B829" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B830" t="s">
         <v>1426</v>
@@ -13087,20 +13093,20 @@
         <v>1427</v>
       </c>
       <c r="B831" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B832" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B833" t="s">
         <v>1430</v>
@@ -13159,36 +13165,36 @@
         <v>1443</v>
       </c>
       <c r="B840" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B841" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B842" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B843" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B844" t="s">
         <v>1448</v>
@@ -13319,12 +13325,12 @@
         <v>1479</v>
       </c>
       <c r="B860" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B861" t="s">
         <v>1481</v>
@@ -13335,12 +13341,12 @@
         <v>1482</v>
       </c>
       <c r="B862" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B863" t="s">
         <v>1484</v>
@@ -13359,12 +13365,12 @@
         <v>1487</v>
       </c>
       <c r="B865" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B866" t="s">
         <v>1489</v>
@@ -13391,20 +13397,20 @@
         <v>1494</v>
       </c>
       <c r="B869" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B870" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B871" t="s">
         <v>1497</v>
@@ -13447,20 +13453,20 @@
         <v>1506</v>
       </c>
       <c r="B876" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B877" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B878" t="s">
         <v>1509</v>
@@ -13503,20 +13509,20 @@
         <v>1518</v>
       </c>
       <c r="B883" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B884" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B885" t="s">
         <v>1521</v>
@@ -13527,12 +13533,12 @@
         <v>1522</v>
       </c>
       <c r="B886" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B887" t="s">
         <v>1524</v>
@@ -13543,12 +13549,12 @@
         <v>1525</v>
       </c>
       <c r="B888" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B889" t="s">
         <v>1527</v>
@@ -13559,12 +13565,12 @@
         <v>1528</v>
       </c>
       <c r="B890" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B891" t="s">
         <v>1530</v>
@@ -13607,12 +13613,12 @@
         <v>1539</v>
       </c>
       <c r="B896" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B897" t="s">
         <v>1541</v>
@@ -13655,12 +13661,12 @@
         <v>1550</v>
       </c>
       <c r="B902" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B903" t="s">
         <v>1552</v>
@@ -13671,20 +13677,20 @@
         <v>1553</v>
       </c>
       <c r="B904" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B905" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B906" t="s">
         <v>1556</v>
@@ -13703,12 +13709,12 @@
         <v>1559</v>
       </c>
       <c r="B908" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B909" t="s">
         <v>1561</v>
@@ -13743,20 +13749,20 @@
         <v>1568</v>
       </c>
       <c r="B913" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B914" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B915" t="s">
         <v>1571</v>
@@ -13799,20 +13805,20 @@
         <v>1580</v>
       </c>
       <c r="B920" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B921" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B922" t="s">
         <v>1583</v>
@@ -13823,20 +13829,20 @@
         <v>1584</v>
       </c>
       <c r="B923" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B924" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B925" t="s">
         <v>1587</v>
@@ -13863,28 +13869,28 @@
         <v>1592</v>
       </c>
       <c r="B928" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B929" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B930" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B931" t="s">
         <v>1596</v>
@@ -13959,20 +13965,20 @@
         <v>1613</v>
       </c>
       <c r="B940" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B941" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B942" t="s">
         <v>1616</v>
@@ -13991,12 +13997,12 @@
         <v>1619</v>
       </c>
       <c r="B944" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B945" t="s">
         <v>1621</v>
@@ -14007,36 +14013,36 @@
         <v>1622</v>
       </c>
       <c r="B946" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B947" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B948" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B949" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B950" t="s">
         <v>1627</v>
@@ -14079,12 +14085,12 @@
         <v>1636</v>
       </c>
       <c r="B955" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B956" t="s">
         <v>1638</v>
@@ -14143,36 +14149,36 @@
         <v>1651</v>
       </c>
       <c r="B963" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B964" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B965" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B966" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B967" t="s">
         <v>1656</v>
@@ -14255,20 +14261,20 @@
         <v>1675</v>
       </c>
       <c r="B977" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B978" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B979" t="s">
         <v>1678</v>
@@ -14287,28 +14293,28 @@
         <v>1681</v>
       </c>
       <c r="B981" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B982" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B983" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B984" t="s">
         <v>1685</v>
@@ -14319,12 +14325,12 @@
         <v>1686</v>
       </c>
       <c r="B985" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B986" t="s">
         <v>1688</v>
@@ -14343,20 +14349,20 @@
         <v>1691</v>
       </c>
       <c r="B988" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B989" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B990" t="s">
         <v>1694</v>
@@ -14367,12 +14373,12 @@
         <v>1695</v>
       </c>
       <c r="B991" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B992" t="s">
         <v>1697</v>
@@ -14391,28 +14397,28 @@
         <v>1700</v>
       </c>
       <c r="B994" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B995" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B996" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B997" t="s">
         <v>1704</v>
@@ -14447,28 +14453,28 @@
         <v>1711</v>
       </c>
       <c r="B1001" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1002" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1003" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1004" t="s">
         <v>1715</v>
@@ -14487,28 +14493,28 @@
         <v>1718</v>
       </c>
       <c r="B1006" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1007" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1008" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1009" t="s">
         <v>1722</v>
@@ -14519,12 +14525,12 @@
         <v>1723</v>
       </c>
       <c r="B1010" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1011" t="s">
         <v>1725</v>
@@ -14551,20 +14557,20 @@
         <v>1730</v>
       </c>
       <c r="B1014" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1015" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1016" t="s">
         <v>1733</v>
@@ -14631,68 +14637,68 @@
         <v>1748</v>
       </c>
       <c r="B1024" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1025" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1026" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1027" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1028" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1029" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1030" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1031" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1032" t="s">
         <v>1757</v>
@@ -14719,12 +14725,12 @@
         <v>1762</v>
       </c>
       <c r="B1035" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1036" t="s">
         <v>1764</v>
@@ -15007,12 +15013,12 @@
         <v>1833</v>
       </c>
       <c r="B1071" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1072" t="s">
         <v>1835</v>
@@ -15031,20 +15037,20 @@
         <v>1838</v>
       </c>
       <c r="B1074" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1075" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1076" t="s">
         <v>1841</v>
@@ -15055,12 +15061,12 @@
         <v>1842</v>
       </c>
       <c r="B1077" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1078" t="s">
         <v>1844</v>
@@ -15079,12 +15085,12 @@
         <v>1847</v>
       </c>
       <c r="B1080" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1081" t="s">
         <v>1849</v>
@@ -15119,12 +15125,12 @@
         <v>1856</v>
       </c>
       <c r="B1085" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1086" t="s">
         <v>1858</v>
@@ -15159,12 +15165,12 @@
         <v>1865</v>
       </c>
       <c r="B1090" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1091" t="s">
         <v>1867</v>
@@ -15207,12 +15213,12 @@
         <v>1876</v>
       </c>
       <c r="B1096" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1097" t="s">
         <v>1878</v>
@@ -15239,36 +15245,36 @@
         <v>1883</v>
       </c>
       <c r="B1100" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1101" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1102" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1103" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1104" t="s">
         <v>1888</v>
@@ -15295,12 +15301,12 @@
         <v>1893</v>
       </c>
       <c r="B1107" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1108" t="s">
         <v>1895</v>
@@ -15311,12 +15317,12 @@
         <v>1896</v>
       </c>
       <c r="B1109" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1110" t="s">
         <v>1898</v>
@@ -15471,44 +15477,44 @@
         <v>1935</v>
       </c>
       <c r="B1129" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1130" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1131" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1132" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1133" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1134" t="s">
         <v>1941</v>
@@ -15527,36 +15533,36 @@
         <v>1944</v>
       </c>
       <c r="B1136" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1137" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1138" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1139" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1140" t="s">
         <v>1949</v>
@@ -15631,12 +15637,12 @@
         <v>1966</v>
       </c>
       <c r="B1149" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1150" t="s">
         <v>1968</v>
@@ -15679,36 +15685,36 @@
         <v>1977</v>
       </c>
       <c r="B1155" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1156" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1157" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1158" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1159" t="s">
         <v>1982</v>
@@ -15727,68 +15733,68 @@
         <v>1985</v>
       </c>
       <c r="B1161" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1162" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1163" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1164" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1165" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1166" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1167" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1168" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1169" t="s">
         <v>1994</v>
@@ -15799,12 +15805,12 @@
         <v>1995</v>
       </c>
       <c r="B1170" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1171" t="s">
         <v>1997</v>
@@ -15847,20 +15853,20 @@
         <v>2006</v>
       </c>
       <c r="B1176" t="s">
-        <v>791</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1177" t="s">
-        <v>2007</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1178" t="s">
         <v>2009</v>
@@ -15914,8 +15920,16 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1184"/>
+  <autoFilter ref="A1:B1185"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2026">
   <si>
     <t>en</t>
   </si>
@@ -5666,6 +5666,12 @@
   </si>
   <si>
     <t>Гората на здрача</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Усукана страна на чудесата</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6435,7 +6441,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1185"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15253,36 +15259,36 @@
         <v>1885</v>
       </c>
       <c r="B1101" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1102" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1103" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1104" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1105" t="s">
         <v>1890</v>
@@ -15309,12 +15315,12 @@
         <v>1895</v>
       </c>
       <c r="B1108" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1109" t="s">
         <v>1897</v>
@@ -15325,12 +15331,12 @@
         <v>1898</v>
       </c>
       <c r="B1110" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1111" t="s">
         <v>1900</v>
@@ -15485,44 +15491,44 @@
         <v>1937</v>
       </c>
       <c r="B1130" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1131" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1132" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1133" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1134" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1135" t="s">
         <v>1943</v>
@@ -15541,36 +15547,36 @@
         <v>1946</v>
       </c>
       <c r="B1137" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1138" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1139" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1140" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1141" t="s">
         <v>1951</v>
@@ -15645,12 +15651,12 @@
         <v>1968</v>
       </c>
       <c r="B1150" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1151" t="s">
         <v>1970</v>
@@ -15693,36 +15699,36 @@
         <v>1979</v>
       </c>
       <c r="B1156" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1157" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1158" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1159" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1160" t="s">
         <v>1984</v>
@@ -15741,68 +15747,68 @@
         <v>1987</v>
       </c>
       <c r="B1162" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1163" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1164" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1165" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1166" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1167" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1168" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1169" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1170" t="s">
         <v>1996</v>
@@ -15813,12 +15819,12 @@
         <v>1997</v>
       </c>
       <c r="B1171" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1172" t="s">
         <v>1999</v>
@@ -15861,20 +15867,20 @@
         <v>2008</v>
       </c>
       <c r="B1177" t="s">
-        <v>793</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1178" t="s">
-        <v>2009</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1179" t="s">
         <v>2011</v>
@@ -15928,8 +15934,16 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1185"/>
+  <autoFilter ref="A1:B1186"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2028">
   <si>
     <t>en</t>
   </si>
@@ -3035,6 +3035,12 @@
   </si>
   <si>
     <t>Hypixel (Миньон)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (Мутации) Tag</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6441,7 +6447,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11123,12 +11129,12 @@
         <v>1006</v>
       </c>
       <c r="B584" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B585" t="s">
         <v>1008</v>
@@ -11187,12 +11193,12 @@
         <v>1021</v>
       </c>
       <c r="B592" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B593" t="s">
         <v>1023</v>
@@ -11211,12 +11217,12 @@
         <v>1026</v>
       </c>
       <c r="B595" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B596" t="s">
         <v>1028</v>
@@ -11259,28 +11265,28 @@
         <v>1037</v>
       </c>
       <c r="B601" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B602" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B603" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B604" t="s">
         <v>1041</v>
@@ -11339,12 +11345,12 @@
         <v>1054</v>
       </c>
       <c r="B611" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B612" t="s">
         <v>1056</v>
@@ -11395,12 +11401,12 @@
         <v>1067</v>
       </c>
       <c r="B618" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B619" t="s">
         <v>1069</v>
@@ -11435,12 +11441,12 @@
         <v>1076</v>
       </c>
       <c r="B623" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B624" t="s">
         <v>1078</v>
@@ -11475,12 +11481,12 @@
         <v>1085</v>
       </c>
       <c r="B628" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B629" t="s">
         <v>1087</v>
@@ -11491,44 +11497,44 @@
         <v>1088</v>
       </c>
       <c r="B630" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B631" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B632" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B633" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B634" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B635" t="s">
         <v>1094</v>
@@ -11539,28 +11545,28 @@
         <v>1095</v>
       </c>
       <c r="B636" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B637" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B638" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B639" t="s">
         <v>1099</v>
@@ -11571,20 +11577,20 @@
         <v>1100</v>
       </c>
       <c r="B640" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B641" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B642" t="s">
         <v>1103</v>
@@ -11595,12 +11601,12 @@
         <v>1104</v>
       </c>
       <c r="B643" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B644" t="s">
         <v>1106</v>
@@ -11635,12 +11641,12 @@
         <v>1113</v>
       </c>
       <c r="B648" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B649" t="s">
         <v>1115</v>
@@ -11651,12 +11657,12 @@
         <v>1116</v>
       </c>
       <c r="B650" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B651" t="s">
         <v>1118</v>
@@ -11667,12 +11673,12 @@
         <v>1119</v>
       </c>
       <c r="B652" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B653" t="s">
         <v>1121</v>
@@ -11699,20 +11705,20 @@
         <v>1126</v>
       </c>
       <c r="B656" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B657" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B658" t="s">
         <v>1129</v>
@@ -11779,12 +11785,12 @@
         <v>1144</v>
       </c>
       <c r="B666" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B667" t="s">
         <v>1146</v>
@@ -11867,12 +11873,12 @@
         <v>1165</v>
       </c>
       <c r="B677" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B678" t="s">
         <v>1167</v>
@@ -11899,20 +11905,20 @@
         <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B682" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B683" t="s">
         <v>1175</v>
@@ -11971,12 +11977,12 @@
         <v>1188</v>
       </c>
       <c r="B690" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B691" t="s">
         <v>1190</v>
@@ -11995,12 +12001,12 @@
         <v>1193</v>
       </c>
       <c r="B693" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B694" t="s">
         <v>1195</v>
@@ -12043,12 +12049,12 @@
         <v>1204</v>
       </c>
       <c r="B699" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B700" t="s">
         <v>1206</v>
@@ -12067,12 +12073,12 @@
         <v>1209</v>
       </c>
       <c r="B702" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B703" t="s">
         <v>1211</v>
@@ -12099,28 +12105,28 @@
         <v>1216</v>
       </c>
       <c r="B706" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B707" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B708" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B709" t="s">
         <v>1220</v>
@@ -12131,12 +12137,12 @@
         <v>1221</v>
       </c>
       <c r="B710" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B711" t="s">
         <v>1223</v>
@@ -12171,12 +12177,12 @@
         <v>1230</v>
       </c>
       <c r="B715" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B716" t="s">
         <v>1232</v>
@@ -12243,12 +12249,12 @@
         <v>1247</v>
       </c>
       <c r="B724" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B725" t="s">
         <v>1249</v>
@@ -12267,12 +12273,12 @@
         <v>1252</v>
       </c>
       <c r="B727" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B728" t="s">
         <v>1254</v>
@@ -12291,12 +12297,12 @@
         <v>1257</v>
       </c>
       <c r="B730" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B731" t="s">
         <v>1259</v>
@@ -12347,12 +12353,12 @@
         <v>1270</v>
       </c>
       <c r="B737" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B738" t="s">
         <v>1272</v>
@@ -12363,28 +12369,28 @@
         <v>1273</v>
       </c>
       <c r="B739" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B740" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B741" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B742" t="s">
         <v>1277</v>
@@ -12419,20 +12425,20 @@
         <v>1284</v>
       </c>
       <c r="B746" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B747" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B748" t="s">
         <v>1287</v>
@@ -12523,12 +12529,12 @@
         <v>1308</v>
       </c>
       <c r="B759" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B760" t="s">
         <v>1310</v>
@@ -12539,20 +12545,20 @@
         <v>1311</v>
       </c>
       <c r="B761" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B762" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B763" t="s">
         <v>1314</v>
@@ -12563,12 +12569,12 @@
         <v>1315</v>
       </c>
       <c r="B764" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B765" t="s">
         <v>1317</v>
@@ -12595,12 +12601,12 @@
         <v>1322</v>
       </c>
       <c r="B768" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B769" t="s">
         <v>1324</v>
@@ -12627,20 +12633,20 @@
         <v>1329</v>
       </c>
       <c r="B772" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B773" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B774" t="s">
         <v>1332</v>
@@ -12707,28 +12713,28 @@
         <v>1347</v>
       </c>
       <c r="B782" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B783" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B784" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B785" t="s">
         <v>1351</v>
@@ -12747,12 +12753,12 @@
         <v>1354</v>
       </c>
       <c r="B787" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B788" t="s">
         <v>1356</v>
@@ -12795,28 +12801,28 @@
         <v>1365</v>
       </c>
       <c r="B793" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B794" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B795" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B796" t="s">
         <v>1369</v>
@@ -12827,28 +12833,28 @@
         <v>1370</v>
       </c>
       <c r="B797" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B798" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B799" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B800" t="s">
         <v>1374</v>
@@ -12899,28 +12905,28 @@
         <v>1385</v>
       </c>
       <c r="B806" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B807" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B808" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B809" t="s">
         <v>1389</v>
@@ -12971,12 +12977,12 @@
         <v>1400</v>
       </c>
       <c r="B815" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B816" t="s">
         <v>1402</v>
@@ -12995,20 +13001,20 @@
         <v>1405</v>
       </c>
       <c r="B818" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B819" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B820" t="s">
         <v>1408</v>
@@ -13043,12 +13049,12 @@
         <v>1415</v>
       </c>
       <c r="B824" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B825" t="s">
         <v>1417</v>
@@ -13091,12 +13097,12 @@
         <v>1426</v>
       </c>
       <c r="B830" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B831" t="s">
         <v>1428</v>
@@ -13107,20 +13113,20 @@
         <v>1429</v>
       </c>
       <c r="B832" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B833" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B834" t="s">
         <v>1432</v>
@@ -13179,36 +13185,36 @@
         <v>1445</v>
       </c>
       <c r="B841" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B842" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B843" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B844" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B845" t="s">
         <v>1450</v>
@@ -13339,12 +13345,12 @@
         <v>1481</v>
       </c>
       <c r="B861" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B862" t="s">
         <v>1483</v>
@@ -13355,12 +13361,12 @@
         <v>1484</v>
       </c>
       <c r="B863" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B864" t="s">
         <v>1486</v>
@@ -13379,12 +13385,12 @@
         <v>1489</v>
       </c>
       <c r="B866" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B867" t="s">
         <v>1491</v>
@@ -13411,20 +13417,20 @@
         <v>1496</v>
       </c>
       <c r="B870" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B871" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B872" t="s">
         <v>1499</v>
@@ -13467,20 +13473,20 @@
         <v>1508</v>
       </c>
       <c r="B877" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B878" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B879" t="s">
         <v>1511</v>
@@ -13523,20 +13529,20 @@
         <v>1520</v>
       </c>
       <c r="B884" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B885" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B886" t="s">
         <v>1523</v>
@@ -13547,12 +13553,12 @@
         <v>1524</v>
       </c>
       <c r="B887" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B888" t="s">
         <v>1526</v>
@@ -13563,12 +13569,12 @@
         <v>1527</v>
       </c>
       <c r="B889" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B890" t="s">
         <v>1529</v>
@@ -13579,12 +13585,12 @@
         <v>1530</v>
       </c>
       <c r="B891" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B892" t="s">
         <v>1532</v>
@@ -13627,12 +13633,12 @@
         <v>1541</v>
       </c>
       <c r="B897" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B898" t="s">
         <v>1543</v>
@@ -13675,12 +13681,12 @@
         <v>1552</v>
       </c>
       <c r="B903" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B904" t="s">
         <v>1554</v>
@@ -13691,20 +13697,20 @@
         <v>1555</v>
       </c>
       <c r="B905" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B906" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B907" t="s">
         <v>1558</v>
@@ -13723,12 +13729,12 @@
         <v>1561</v>
       </c>
       <c r="B909" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B910" t="s">
         <v>1563</v>
@@ -13763,20 +13769,20 @@
         <v>1570</v>
       </c>
       <c r="B914" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B915" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B916" t="s">
         <v>1573</v>
@@ -13819,20 +13825,20 @@
         <v>1582</v>
       </c>
       <c r="B921" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B922" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B923" t="s">
         <v>1585</v>
@@ -13843,20 +13849,20 @@
         <v>1586</v>
       </c>
       <c r="B924" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B925" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B926" t="s">
         <v>1589</v>
@@ -13883,28 +13889,28 @@
         <v>1594</v>
       </c>
       <c r="B929" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B930" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B931" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B932" t="s">
         <v>1598</v>
@@ -13979,20 +13985,20 @@
         <v>1615</v>
       </c>
       <c r="B941" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B942" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B943" t="s">
         <v>1618</v>
@@ -14011,12 +14017,12 @@
         <v>1621</v>
       </c>
       <c r="B945" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B946" t="s">
         <v>1623</v>
@@ -14027,36 +14033,36 @@
         <v>1624</v>
       </c>
       <c r="B947" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B948" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B949" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B950" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B951" t="s">
         <v>1629</v>
@@ -14099,12 +14105,12 @@
         <v>1638</v>
       </c>
       <c r="B956" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B957" t="s">
         <v>1640</v>
@@ -14163,36 +14169,36 @@
         <v>1653</v>
       </c>
       <c r="B964" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B965" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B966" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B967" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B968" t="s">
         <v>1658</v>
@@ -14275,20 +14281,20 @@
         <v>1677</v>
       </c>
       <c r="B978" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B979" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B980" t="s">
         <v>1680</v>
@@ -14307,28 +14313,28 @@
         <v>1683</v>
       </c>
       <c r="B982" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B983" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B984" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B985" t="s">
         <v>1687</v>
@@ -14339,12 +14345,12 @@
         <v>1688</v>
       </c>
       <c r="B986" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B987" t="s">
         <v>1690</v>
@@ -14363,20 +14369,20 @@
         <v>1693</v>
       </c>
       <c r="B989" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B990" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B991" t="s">
         <v>1696</v>
@@ -14387,12 +14393,12 @@
         <v>1697</v>
       </c>
       <c r="B992" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B993" t="s">
         <v>1699</v>
@@ -14411,28 +14417,28 @@
         <v>1702</v>
       </c>
       <c r="B995" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B996" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B997" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B998" t="s">
         <v>1706</v>
@@ -14467,28 +14473,28 @@
         <v>1713</v>
       </c>
       <c r="B1002" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1003" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1004" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1005" t="s">
         <v>1717</v>
@@ -14507,28 +14513,28 @@
         <v>1720</v>
       </c>
       <c r="B1007" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1008" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1009" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1010" t="s">
         <v>1724</v>
@@ -14539,12 +14545,12 @@
         <v>1725</v>
       </c>
       <c r="B1011" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1012" t="s">
         <v>1727</v>
@@ -14571,20 +14577,20 @@
         <v>1732</v>
       </c>
       <c r="B1015" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1016" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1017" t="s">
         <v>1735</v>
@@ -14651,68 +14657,68 @@
         <v>1750</v>
       </c>
       <c r="B1025" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1026" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1027" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1028" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1029" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1030" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1031" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1032" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1033" t="s">
         <v>1759</v>
@@ -14739,12 +14745,12 @@
         <v>1764</v>
       </c>
       <c r="B1036" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1037" t="s">
         <v>1766</v>
@@ -15027,12 +15033,12 @@
         <v>1835</v>
       </c>
       <c r="B1072" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1073" t="s">
         <v>1837</v>
@@ -15051,20 +15057,20 @@
         <v>1840</v>
       </c>
       <c r="B1075" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1076" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1077" t="s">
         <v>1843</v>
@@ -15075,12 +15081,12 @@
         <v>1844</v>
       </c>
       <c r="B1078" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1079" t="s">
         <v>1846</v>
@@ -15099,12 +15105,12 @@
         <v>1849</v>
       </c>
       <c r="B1081" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1082" t="s">
         <v>1851</v>
@@ -15139,12 +15145,12 @@
         <v>1858</v>
       </c>
       <c r="B1086" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1087" t="s">
         <v>1860</v>
@@ -15179,12 +15185,12 @@
         <v>1867</v>
       </c>
       <c r="B1091" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1092" t="s">
         <v>1869</v>
@@ -15227,12 +15233,12 @@
         <v>1878</v>
       </c>
       <c r="B1097" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1098" t="s">
         <v>1880</v>
@@ -15267,36 +15273,36 @@
         <v>1887</v>
       </c>
       <c r="B1102" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1103" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1104" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1105" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1106" t="s">
         <v>1892</v>
@@ -15323,12 +15329,12 @@
         <v>1897</v>
       </c>
       <c r="B1109" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1110" t="s">
         <v>1899</v>
@@ -15339,12 +15345,12 @@
         <v>1900</v>
       </c>
       <c r="B1111" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1112" t="s">
         <v>1902</v>
@@ -15499,44 +15505,44 @@
         <v>1939</v>
       </c>
       <c r="B1131" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1132" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1133" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1134" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1135" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1136" t="s">
         <v>1945</v>
@@ -15555,36 +15561,36 @@
         <v>1948</v>
       </c>
       <c r="B1138" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1139" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1140" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1141" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1142" t="s">
         <v>1953</v>
@@ -15659,12 +15665,12 @@
         <v>1970</v>
       </c>
       <c r="B1151" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1152" t="s">
         <v>1972</v>
@@ -15707,36 +15713,36 @@
         <v>1981</v>
       </c>
       <c r="B1157" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1158" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1159" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1160" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1161" t="s">
         <v>1986</v>
@@ -15755,68 +15761,68 @@
         <v>1989</v>
       </c>
       <c r="B1163" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1164" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1165" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1166" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1167" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1168" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1169" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1170" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1171" t="s">
         <v>1998</v>
@@ -15827,12 +15833,12 @@
         <v>1999</v>
       </c>
       <c r="B1172" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1173" t="s">
         <v>2001</v>
@@ -15875,20 +15881,20 @@
         <v>2010</v>
       </c>
       <c r="B1178" t="s">
-        <v>793</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1179" t="s">
-        <v>2011</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B1180" t="s">
         <v>2013</v>
@@ -15942,8 +15948,16 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2027</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1186"/>
+  <autoFilter ref="A1:B1187"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/bg/headTags.xlsx
+++ b/lang/bg/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1188</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2030">
   <si>
     <t>en</t>
   </si>
@@ -3037,3004 +3037,3010 @@
     <t>Hypixel (Миньон)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Мутации)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Домашни любимци)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Камък за преформиране)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (чували)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Кожи)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Талисмани)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (трофейни риби)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Земя на блясъка)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Ледена епоха</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Леден катерач</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Икони (графичен потребителски интерфейс)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Икони (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Икони (други)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Икони (бял фон)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Идентичност V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Индиана Джоунс</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Парк Индиго</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Наранявания</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Блок на вътрешния слой</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Инкриптиране</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Насекоми</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Навътре навън</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Завоевател Зим</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Непобедим</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Железен човек</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>То</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Джак и Дакстър</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Бижута</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>Странното приключение на JoJo</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Странно приключение на JoJo (стойка)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Пътуване</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Кралят на скоковете</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Джурасик парк</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Лига на справедливостта</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Рай на кайджу</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Карате кид</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Ким Възможен</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Кухня</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Кунг-фу панда</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Абажур за лампа</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Пейзаж</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Фенер</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Замък в небето</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Лига на легендите</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Легендарни покемони</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Смъртоносна лига</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Библиотеката на Руина</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Животът е странен</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Цар Лъв</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Малката голяма планета</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Малката русалка</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Малки кошмари</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Малък магазин на ужасите</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Академията на малките вещици</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Лама</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Лого</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Властелинът на пръстените</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Любов на живо!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Влюбено създание</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Влюбен човек</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Късметлията Люк</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Част от машина</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Луд баща</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Луд Макс</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Произведено в бездната</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Борба с лудостта</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Грим</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Мъжки</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Герои на чистото сърце</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Мария и цветето на вещицата</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Талисман</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Маска</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Маска (пълна)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Маска (функционална)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Маска (здравословна)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Маска (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Господари на вселената</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Математически символ</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Ястие</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Месо</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Средновековие</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Средновековна механа</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Средновековен военен шлем</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Мега еволюция</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Мегамен</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Актьори от Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Меме</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Меме (куче)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Метро</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Мексико</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Мики Маус</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Военно оборудване</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Майнкрафт за април</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft подземия</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Земя</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft образователно издание</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft легенди</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft на живо</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft филм</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Режим на историята на Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Миньор</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Чудодейни: Приказки за божията майка и котарака Ноар</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Бъдещ дневник)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Драконовата прислужница на мис Кобаяши</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Ресурсен пакет на Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Каска за Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Пари</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Паричен обир</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Монитор</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Островът на маймуните</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Монокъл</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Ловец на чудовища</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Планини на хаоса</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Измиване на устата</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Г-н Бийн</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Мулан</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Дронове за убийства</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Гъби</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Гъби (биом)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Гъба (облекло за глава)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Музика</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Мустаци</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Моят приятел елен Нокотан</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Моят герой Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Моето малко пони</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Моят съсед Тоторо</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Моите пеещи чудовища</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä от долината на вятъра</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (вдъхновен)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Неутрално създание</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Неутрално лице</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Новогодишна нощ</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Нощ в гората</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Кошмарът преди Коледа</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Костенурките нинджа</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Парти в къщата на Ноел</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Северна митология</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (образователно издание)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Ядрено отпадане</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Ядрен трон</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Ядки</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Океан</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Офицерска шапка</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches (Оги и хлебарките)</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Старият</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Оливър и Ко</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>Омори</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Едно парче</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>Човек с един удар</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Обекти с отворен код</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Органи и части от тялото</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Други шапки за глава</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Други осветителни тела</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Други мистични същества</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Блок на външния слой</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Владетел</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Пасификатор</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Рисувано лице</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Бледа градина (вдъхновена)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Мечка Панда</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Лабиринт на Панс</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Документи, моля</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Парти</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Сладкиши и бонбони</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Фъстъци (Снупи)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Пингвин</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Прасето Пепа</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Периодична таблица на елементите</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Оборудване за домашни любимци</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Питър Пан</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Фантом</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Финиъс и Ферб</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Прасе</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Прасето</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Розова пантера</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Пинки и мозъкът</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Пинокио</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Карибски пирати</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Кула от пици</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Планета</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Растения срещу зомбита</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Покемон поколение 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Покемон поколение 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Покемон поколение 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Покемон поколение 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Покемон поколение 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Покемон поколение 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Покемон поколение 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Покемон поколение 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Покемон поколение 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Покемон предмети</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Треньор на покемони</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Полярна мечка</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Полиция</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Пом Поко</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Понио</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>Поп екип Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Попски игри</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Портал</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Пощальонът Пат</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Момичетата от Powerpuff</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Хищник</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Подарък</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Принцеса Мононоке</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Професор Лейтън</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Тиква</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Тиква (литература)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Пунктуационен знак</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Заек</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Железопътна линия</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Дъждовен свят</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Рататуй</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Ратчет и Кланк</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Царството на лудия бог</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Червената шапчица</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Покемон с регионална форма</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Редовно шоу</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Религия</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Влечуги</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Спасителни рейнджъри</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Обитател на злото</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Лента</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Рик и Морти</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Риск от дъжд</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Съперник от ефира</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Река</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Робин Худ</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Робот</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Роки</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Гризачи</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Ротиран субект</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Кралска шапка за глава</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Руни</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Голямо приключение</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Тъжно създание</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Тъжен човек</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Сафари (друго)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Сага за злата Таня</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Самурайски шлем</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Шал</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>Скуби-Ду</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Нарушаване на ограничението на SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Моряк</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Серафим на края</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Серийни експерименти Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Улица Сезам</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Седемте смъртни гряха</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Сянката на колоса</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Сенките на Мордор</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Овце</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Шерлок Холмс</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Блестящи покемони</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Шрек</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Скелет</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Скелет (Ванилия)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Скептично същество</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Скептичен човек</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Черепни момичета</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Спяща красавица</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Спящо същество</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Спящ човек</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Нарязан</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Слуз</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Слуз (ванилия)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Слизест ранчо</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Смърфове</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Снежна битка</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Снежна скулптура</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Снежанка и седемте джуджета</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Песни на войната</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Таралежът Соник</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Рицар на душата</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Южен парк</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Пътуване в космоса</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Яйцето на новороденото</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Паяк</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Паяк (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Спондж Боб Квадратни гащи</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Спори</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Спорт</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Шпионин х семейство</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Игра на калмари</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Денят на Свети Патрик</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Звезда срещу силите на злото</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Звездни войни</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Каска от Междузвездни войни</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Каска за войник от "Междузвездни войни</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Стартови покемони</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Канцеларски материали</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Вселената на Стивън</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Съхранение (друго)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Странни неща</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Уличен боец</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Лято</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Слънчеви очила</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Супер Марио</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Свръхестествено</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Изненадано същество</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Изненадан човек</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Суши</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Блато</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Тетрис</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Ден на благодарността</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Онзи път, когато се превъплътих в слуз</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Приключенията на Тинтин</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Невероятният цифров цирк</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Невероятният свят на Гъмбол</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Връзката на Исаак</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Момчетата</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Котаракът се завръща</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>Заклинанието</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Медната епоха</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Новата песен на императора (The Emperor's New Groove)</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Звездите на английския ансамбъл</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>Справедливите странни родители</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Финалът</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Светкавицата</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Семейство Флинтстоун</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Мухата</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Градината се пробужда</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Добрият динозавър</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Големият детектив с мишка</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Мрачните приключения на Били и Манди</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Гърбушкото от Нотр Дам</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Железният гигант</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Последният пазител</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>Последният от нас</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Легендата за Зелда</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Лоракс</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Небитието</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Къщата на совите</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Принцесата и жабокът</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Шоуто на Рен и Стимпи</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Пътят към Ел Дорадо</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Тексаското клане с верижен трион</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Тримата кабалеристи</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Досиетата Уолтън</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Шоуто на Уди Кълвача</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Томас и приятели</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Онези нощи при Рейчъл</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Конструкцията на Тинкър</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Том и Джери</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Пионерите на утрешния ден</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Зъбна пролука</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Островът на пълната драма</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Проект Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Играчка</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>История на играчките</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Светофар</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Пътен знак</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Пътеки и приказки</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Трансформърс</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Прозрачна глава</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Кофа за боклук</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Съкровище</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Планета на съкровищата</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Актуализация на сложните изпитания</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Костенурка</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Гората на здрача</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Усукана страна на чудесата</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Ултраубийство</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Универсален символ</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Нагоре</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Градска дива природа</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Валентин</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Ванилия (премахната)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Ванилов блок</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Храна Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Каска за ванилия</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Ванилов предмет</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Мафия с ванилия</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Ловци на хранилища</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Зеленчуци</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Превозно средство</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Викинги</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Селянин</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Селянин (пустиня)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Селянин (джунгла)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Селянин (равнини)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Селянин (Савана)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Селянин (Снежна тундра)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Селянин (блато)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Селянин (Тайга)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Виртуален ютубер</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Уолъс и Громит</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Войната на световете</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Ние носим мечки</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Ние, щастливите малцина</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Времето</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Добре дошли у дома</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Кой е този?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Дива актуализация</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Огнени крила</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Мечо Пух</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Чудесен свят на чудесата</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Дърво</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Вълна</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Работна предпазна каска</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Разруши го Ралф</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Симулатор на яндери</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Жълта подводница</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Зодиакален знак</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Зомби (Ванилия)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Зоотопия</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (Мутации) Tag</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Домашни любимци)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Камък за преформиране)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (чували)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Кожи)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Талисмани)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (трофейни риби)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Земя на блясъка)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Ледена епоха</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Леден катерач</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Икони (графичен потребителски интерфейс)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Икони (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Икони (други)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Икони (бял фон)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Идентичност V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Индиана Джоунс</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Парк Индиго</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Наранявания</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Блок на вътрешния слой</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Инкриптиране</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Насекоми</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Навътре навън</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Завоевател Зим</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Непобедим</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>Железен човек</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>То</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Джак и Дакстър</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Япония</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Бижута</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>Странното приключение на JoJo</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Странно приключение на JoJo (стойка)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Пътуване</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Кралят на скоковете</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Джурасик парк</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Лига на справедливостта</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Рай на кайджу</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Карате кид</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Ким Възможен</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Кухня</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Кунг-фу панда</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Абажур за лампа</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Пейзаж</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Фенер</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Замък в небето</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Лига на легендите</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Легендарни покемони</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Смъртоносна лига</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Библиотеката на Руина</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Животът е странен</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Цар Лъв</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Малката голяма планета</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Малката русалка</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Малки кошмари</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Малък магазин на ужасите</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Академията на малките вещици</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Лама</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Лого</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Властелинът на пръстените</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Любов на живо!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Влюбено създание</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Влюбен човек</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Късметлията Люк</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Част от машина</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Луд баща</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Луд Макс</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Произведено в бездната</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Борба с лудостта</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Грим</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Мъжки</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Герои на чистото сърце</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Мария и цветето на вещицата</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Талисман</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Маска</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Маска (пълна)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Маска (функционална)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Маска (здравословна)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Маска (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Господари на вселената</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Математически символ</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Ястие</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Месо</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Средновековие</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Средновековна механа</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Средновековен военен шлем</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Мега еволюция</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Мегамен</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Актьори от Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Меме</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Меме (куче)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Метро</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Мексико</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Мики Маус</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Военно оборудване</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Майнкрафт за април</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft подземия</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Земя</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft образователно издание</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft легенди</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft на живо</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft филм</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Режим на историята на Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Миньор</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Чудодейни: Приказки за божията майка и котарака Ноар</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Бъдещ дневник)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Драконовата прислужница на мис Кобаяши</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Ресурсен пакет на Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Каска за Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Пари</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Паричен обир</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Монитор</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Островът на маймуните</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Монокъл</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Ловец на чудовища</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Планини на хаоса</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Измиване на устата</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Г-н Бийн</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Мулан</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Дронове за убийства</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Гъби</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Гъби (биом)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Гъба (облекло за глава)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Музика</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Мустаци</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Моят приятел елен Нокотан</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Моят герой Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Моето малко пони</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Моят съсед Тоторо</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Моите пеещи чудовища</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä от долината на вятъра</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (вдъхновен)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Неутрално създание</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Неутрално лице</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Новогодишна нощ</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Нощ в гората</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Кошмарът преди Коледа</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Костенурките нинджа</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Парти в къщата на Ноел</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Северна митология</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (образователно издание)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Ядрено отпадане</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Ядрен трон</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Ядки</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Океан</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Офицерска шапка</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches (Оги и хлебарките)</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Старият</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Оливър и Ко</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>Омори</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Едно парче</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>Човек с един удар</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Обекти с отворен код</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Органи и части от тялото</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Други шапки за глава</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Други осветителни тела</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Други мистични същества</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Блок на външния слой</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Владетел</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Пасификатор</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Рисувано лице</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Бледа градина (вдъхновена)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Мечка Панда</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Лабиринт на Панс</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Документи, моля</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Парти</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Сладкиши и бонбони</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Фъстъци (Снупи)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Пингвин</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Прасето Пепа</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Периодична таблица на елементите</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Оборудване за домашни любимци</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Питър Пан</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Фантом</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Финиъс и Ферб</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Прасе</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Прасето</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Розова пантера</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Пинки и мозъкът</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Пинокио</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Карибски пирати</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Кула от пици</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Планета</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Растения срещу зомбита</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Покемон поколение 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Покемон поколение 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Покемон поколение 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Покемон поколение 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Покемон поколение 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Покемон поколение 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Покемон поколение 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Покемон поколение 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Покемон поколение 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Покемон предмети</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Треньор на покемони</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Полярна мечка</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Полиция</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Пом Поко</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Понио</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>Поп екип Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Попски игри</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Портал</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Пощальонът Пат</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Момичетата от Powerpuff</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Хищник</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Подарък</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Принцеса Мононоке</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Професор Лейтън</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Тиква</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Тиква (литература)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Пунктуационен знак</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Заек</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Железопътна линия</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Дъждовен свят</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Рататуй</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Ратчет и Кланк</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Царството на лудия бог</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Червената шапчица</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Покемон с регионална форма</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Редовно шоу</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Религия</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Влечуги</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Спасителни рейнджъри</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Обитател на злото</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Лента</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Рик и Морти</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Риск от дъжд</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Съперник от ефира</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Река</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Робин Худ</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Робот</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Роки</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Гризачи</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Ротиран субект</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Кралска шапка за глава</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Руни</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Голямо приключение</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Тъжно създание</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Тъжен човек</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Сафари (друго)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Сага за злата Таня</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Самурайски шлем</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Шал</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>Скуби-Ду</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Нарушаване на ограничението на SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Моряк</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Серафим на края</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Серийни експерименти Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Улица Сезам</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Седемте смъртни гряха</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Сянката на колоса</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Сенките на Мордор</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Овце</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Шерлок Холмс</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Блестящи покемони</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Доставка</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Шрек</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Скелет</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Скелет (Ванилия)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Скептично същество</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Скептичен човек</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Черепни момичета</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Спяща красавица</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Спящо същество</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Спящ човек</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Нарязан</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Слуз</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Слуз (ванилия)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Слизест ранчо</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Смърфове</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Снежна битка</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Снежна скулптура</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Снежанка и седемте джуджета</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Песни на войната</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Таралежът Соник</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Рицар на душата</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Южен парк</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Пътуване в космоса</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Яйцето на новороденото</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Паяк</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Паяк (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Спондж Боб Квадратни гащи</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Спори</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Спорт</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Шпионин х семейство</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Игра на калмари</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Денят на Свети Патрик</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Звезда срещу силите на злото</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Звездни войни</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Каска от Междузвездни войни</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Каска за войник от "Междузвездни войни</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Стартови покемони</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Канцеларски материали</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Вселената на Стивън</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Съхранение (друго)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Странни неща</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Уличен боец</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Лято</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Слънчеви очила</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Супер Марио</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Свръхестествено</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Изненадано същество</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Изненадан човек</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Суши</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Блато</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Тетрис</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Ден на благодарността</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Онзи път, когато се превъплътих в слуз</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Приключенията на Тинтин</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Невероятният цифров цирк</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Невероятният свят на Гъмбол</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Връзката на Исаак</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Момчетата</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Котаракът се завръща</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>Заклинанието</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Медната епоха</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Новата песен на императора (The Emperor's New Groove)</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Звездите на английския ансамбъл</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>Справедливите странни родители</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Финалът</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Светкавицата</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Семейство Флинтстоун</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Мухата</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Градината се пробужда</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Добрият динозавър</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Големият детектив с мишка</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Мрачните приключения на Били и Манди</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Гърбушкото от Нотр Дам</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Железният гигант</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Последният пазител</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>Последният от нас</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Легендата за Зелда</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Лоракс</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Небитието</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Къщата на совите</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Принцесата и жабокът</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Шоуто на Рен и Стимпи</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Пътят към Ел Дорадо</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Тексаското клане с верижен трион</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Тримата кабалеристи</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Досиетата Уолтън</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Шоуто на Уди Кълвача</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Томас и приятели</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Онези нощи при Рейчъл</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Конструкцията на Тинкър</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Том и Джери</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Пионерите на утрешния ден</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Зъбна пролука</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Островът на пълната драма</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Проект Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Играчка</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>История на играчките</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Светофар</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Пътен знак</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Пътеки и приказки</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Трансформърс</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Прозрачна глава</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Кофа за боклук</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Съкровище</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Планета на съкровищата</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Актуализация на сложните изпитания</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Костенурка</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Гората на здрача</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Усукана страна на чудесата</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Ултраубийство</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Универсален символ</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Нагоре</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Градска дива природа</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Валентин</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Ванилия (премахната)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Ванилов блок</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Храна Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Каска за ванилия</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Ванилов предмет</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Мафия с ванилия</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Ловци на хранилища</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Зеленчуци</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Превозно средство</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Викинги</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Селянин</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Селянин (пустиня)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Селянин (джунгла)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Селянин (равнини)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Селянин (Савана)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Селянин (Снежна тундра)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Селянин (блато)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Селянин (Тайга)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Виртуален ютубер</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Уолъс и Громит</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Войната на световете</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Ние носим мечки</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Ние, щастливите малцина</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Времето</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Добре дошли у дома</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Кой е този?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Дива актуализация</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Огнени крила</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Мечо Пух</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Зима</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Чудесен свят на чудесата</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Дърво</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Вълна</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Работна предпазна каска</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Разруши го Ралф</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Симулатор на яндери</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Жълта подводница</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Зодиакален знак</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Зомби (Ванилия)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Зоотопия</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6447,7 +6453,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1187"/>
+  <dimension ref="A1:B1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15889,20 +15895,20 @@
         <v>2012</v>
       </c>
       <c r="B1179" t="s">
-        <v>793</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1180" t="s">
-        <v>2013</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B1181" t="s">
         <v>2015</v>
@@ -15956,8 +15962,16 @@
         <v>2027</v>
       </c>
     </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2029</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1187"/>
+  <autoFilter ref="A1:B1188"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
